--- a/course_materials/Spring2019_points_time.xlsx
+++ b/course_materials/Spring2019_points_time.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfred/OneDrive - University of Nevada, Reno/Teaching/Bayes_course/git_public/course_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D05D9AC-FF69-A546-8093-93B7C9AC399D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22C9D00-386B-5F49-8C8F-DAFB4DD5EB01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28240" xr2:uid="{5B157F0B-9104-0946-B9B4-284B01756121}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,7 +608,7 @@
         <v>29</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>120</v>
@@ -792,7 +792,7 @@
         <v>29</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F14">
         <v>120</v>
@@ -953,7 +953,7 @@
         <v>29</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F21">
         <v>120</v>
@@ -1068,10 +1068,10 @@
         <v>29</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G26" t="s">
         <v>25</v>
